--- a/Assets/docs/Trimestre II/03_Requisitos/historias de usuario.xlsx
+++ b/Assets/docs/Trimestre II/03_Requisitos/historias de usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeoleco-my.sharepoint.com/personal/jvaron_aeole_co/Documents/Documentos/prueba/conjuntos_residenciales-main/Assets/docs/Trimestre II/03_Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0368FBCC-4A0C-4971-B5D6-AD8EBC0B2A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0368FBCC-4A0C-4971-B5D6-AD8EBC0B2A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB0C95A4-4988-4C7A-98A6-BC3D38262088}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lla de historia de usuario ágil" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>PLANTILLA DE HISTORIA DE USUARIO ÁGIL</t>
   </si>
@@ -53,76 +53,94 @@
     <t>habitante del conjunto</t>
   </si>
   <si>
-    <t>barra de busqueda</t>
-  </si>
-  <si>
-    <t>poder realizar una busqueda rapida en la aplicacion</t>
-  </si>
-  <si>
-    <t>apartado para revisar correspondencia</t>
-  </si>
-  <si>
-    <t>facilitar la fecha y hora de entrega de un pedido, para evitar incovenientes y/o reportar problemas a la paqueteria o administracion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apartado de noticias </t>
-  </si>
-  <si>
-    <t>se espera que en esta seccion los residentes dejen sus novedades a cerca del conjunto en un tipo chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boton de ayuda o consulta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">se hace para que los residentes tengan una rapida comunicación ya sea un guarda o la administradora </t>
-  </si>
-  <si>
-    <t>seccion de avisos importantes</t>
-  </si>
-  <si>
-    <t>los mensajes mas importantes estaran en la pantalla principal del conjunto para que tengan mas visibilidad</t>
-  </si>
-  <si>
-    <t>interfaz personalizable</t>
-  </si>
-  <si>
-    <t>los usuarios podran cambiar el color de la aplicación y sus derivados para tener una aplicación mas personal</t>
-  </si>
-  <si>
-    <t>diseño simple o minimalista</t>
-  </si>
-  <si>
-    <t>la mayoria de residentes son mayores, una interfaz rapida y sencilla aumentara su uso</t>
-  </si>
-  <si>
-    <t>opcion para sordos y ciegos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se adaptara para que todos puedan usar la aplicación sin problemas </t>
-  </si>
-  <si>
     <t>supersvisar la aplicacion en su etapa de elaboracion</t>
   </si>
   <si>
-    <t xml:space="preserve">solicita realizar un apartado de facil acceso como una barra de busqueda o botones que dirigan rapidamente a una seccion de la aplicación - se busca que sea una aplicación sencilla de entender pero que a su vez este bien equipada con todo lo que piden los habitantes - solicita una funcion que sea adaptativa para habitantes con discapacidades visuales o de oido - solicita un boton de comunicacion rapida con ella o con un guarda de seguridad </t>
-  </si>
-  <si>
-    <t>Seccion de eventos</t>
-  </si>
-  <si>
-    <t>los usuarios requieren un apartado para poder hacer reserva del lugar para sus eventos (salon comunal, bbq o quiosco)</t>
-  </si>
-  <si>
-    <t>crear chat</t>
-  </si>
-  <si>
-    <t>para que los residentes se mantengan informados sobre asuntos personales requeridos en el conjunto, tales como correspondencia o entrega de paquetes</t>
-  </si>
-  <si>
-    <t>seccion parqueaderos</t>
-  </si>
-  <si>
-    <t>en el conjunto se manejan conjuntos con arrendamiento temporal en caso de visita, solicitan ellos un apartado para agilizar ese proceso y no tener que requerir ir hasta la porteria</t>
+    <t xml:space="preserve">solicita realizar un apartado de facil acceso como una barra de busqueda o botones que dirigan rapidamente a una seccion de la aplicación - se busca que sea una aplicación sencilla de entender pero que a su vez este bien equipada con todo lo que piden los habitantes - solicita un boton de comunicacion rapida con ella o con un guarda de seguridad </t>
+  </si>
+  <si>
+    <t>modulos</t>
+  </si>
+  <si>
+    <t>los habitantes solicitan modulos visibles y faciles de comprender para los servicios pedidos</t>
+  </si>
+  <si>
+    <t>funcionalidades reserva salon comunal</t>
+  </si>
+  <si>
+    <t>funcionalidades reserva quisco o bbq</t>
+  </si>
+  <si>
+    <t>los habiantes piden fotos y videos del quiosco para poder saber que ofrece para los habitantes que lo deseen ocupar, puesto que este es usado para integraciones sociales al aire libre piden que haya advertencias y recomendaciones de su uso, especialmente con la cocina. En este caso, se hace la funcionalidad similar a la reserva del salon comunal, de una manera agil y simple</t>
+  </si>
+  <si>
+    <t>los habitantes quieren que el modulo para reservar el salon comunal sea facil de entender y claro con los datos que se toman. Esto para que sea mucho mas claros los motivos y la cantidad de asistentes en el evento. Igualmente que esten claras las medidas de seguridad a tener en cuenta</t>
+  </si>
+  <si>
+    <t>funcionalidades reserva parqueadero</t>
+  </si>
+  <si>
+    <t>los habirantes quieren que la reserva de este se pueda hacer por medio de la pagina web, para poder agilizar las visitas al conjunto. Esto les beneficia para poder agendar un parqueadero por cierto tiempo o simplemente para tenerlo a disposicion en una emergencia. Igualmente. El vigilante que se encuentre en turno, podra registrar tambien la ocupacion de un parqueadero</t>
+  </si>
+  <si>
+    <t>colores</t>
+  </si>
+  <si>
+    <t>los usuarios concordaron que colores pastel y con tonalidades verdes deben sobre salir por encima de cualquier otro, esto porque el conjunto se caracteriza por estar rodeado de arboles</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>la administradora solicita que los usuarios ya esten creados, ya que los habitantes no son muchos y esto ayuda a tener un mejor control sobre la aplicacion. Aunque, tendran libertad de editar sus usuario y contraseñas</t>
+  </si>
+  <si>
+    <t>diseño barra lateral</t>
+  </si>
+  <si>
+    <t>los habitantes concordaron que una barra lateral ayuda a encasillar mucho mejor los apartados funcionales</t>
+  </si>
+  <si>
+    <t>funciones en la barra lateral</t>
+  </si>
+  <si>
+    <t>en esta barra lateral se hubicaran varios campos, estos van a cambiar segun el rol que tenga la persona. En este caso el administrador tendra visibilidad de todos los campos. Tanto de registro de datos como de reservas</t>
+  </si>
+  <si>
+    <t>pagina principal</t>
+  </si>
+  <si>
+    <t>los habitantes piden una pagina simple inicial, en la que se encuentre el contexto del conjunto para ´poder dar una mejor introduccion a personas nuevas que se dirijan al conjunto</t>
+  </si>
+  <si>
+    <t>funcionalidades pagina principal</t>
+  </si>
+  <si>
+    <t>los usuarios piden que existan 3 botones tales como: iniciar sesion, ayuda y conocer mas. Este ultimo dirigido a personas nuevas con intenciones de querer tener un acercamiento mas optimo con lo que ofrece el conjunto</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>la administradora pide que el login sea sencillo(usuario y contraseña)  tambien este contendra un apartado por si la persona olvido su contraseña. El diseño sin muchos colores como ya se menciono, priorizar la escala de colores verdes y los botones y alertas amigables con el usuario</t>
+  </si>
+  <si>
+    <t>recuperar contraseña</t>
+  </si>
+  <si>
+    <t>sobre el diseño, se pide lo mismo que el login. Se requiere que los usuarios tengan un numero de telefono para poder asi recuperar su cuenta. Si la necesidad es recuperar el usuario, con la identificacion de la persona deberia de poder ingresar.</t>
+  </si>
+  <si>
+    <t>botones de ayuda</t>
+  </si>
+  <si>
+    <t>los habitantes piden botones de ayuda visibles, tanto para poder reportar errores, como para tener una comunicacion directa con los guardas de seguridad</t>
+  </si>
+  <si>
+    <t>eventos especiales</t>
+  </si>
+  <si>
+    <t>los habitantes piden que cunado hayan eventos especiales como asambleas, reuniones etc, se registren en la zona de eventos y los parqueaderos queden ocupados, puesto que en este lugar(casi siempre) es el espacio que se usa para hacer este tipo de eventos</t>
   </si>
 </sst>
 </file>
@@ -720,27 +738,27 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="5" width="48.796875" customWidth="1"/>
-    <col min="6" max="6" width="3.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="5" width="48.75" customWidth="1"/>
+    <col min="6" max="6" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -762,7 +780,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -778,7 +796,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -786,10 +804,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -800,7 +818,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -808,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -822,7 +840,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -830,10 +848,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -844,7 +862,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -852,10 +870,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -866,7 +884,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -874,10 +892,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -888,18 +906,18 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -910,7 +928,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -918,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -932,7 +950,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>9</v>
       </c>
@@ -940,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -954,7 +972,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>10</v>
       </c>
@@ -962,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -976,7 +994,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>11</v>
       </c>
@@ -984,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -998,7 +1016,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>12</v>
       </c>
@@ -1006,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1020,12 +1038,12 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>31</v>
@@ -1042,11 +1060,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1056,11 +1082,19 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1070,11 +1104,19 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1084,7 +1126,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -1098,7 +1140,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -1112,7 +1154,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -1126,7 +1168,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1140,7 +1182,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" s="11" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" s="11" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1190,7 @@
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1162,7 +1204,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1176,7 +1218,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1190,7 +1232,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1204,7 +1246,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1218,7 +1260,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1232,7 +1274,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1246,7 +1288,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1260,7 +1302,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1274,7 +1316,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1288,7 +1330,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1302,7 +1344,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1316,7 +1358,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1330,7 +1372,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1344,7 +1386,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1358,7 +1400,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1372,7 +1414,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1386,7 +1428,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1400,7 +1442,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1414,7 +1456,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1428,7 +1470,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1442,7 +1484,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1456,7 +1498,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1470,7 +1512,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1484,7 +1526,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1498,7 +1540,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1512,7 +1554,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1526,7 +1568,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1540,7 +1582,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1554,7 +1596,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1568,7 +1610,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1582,7 +1624,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1596,7 +1638,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1610,7 +1652,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1624,7 +1666,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1638,7 +1680,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1652,7 +1694,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1666,7 +1708,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1680,7 +1722,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1694,7 +1736,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1708,7 +1750,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1722,7 +1764,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1736,7 +1778,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -1754,7 +1796,7 @@
     <hyperlink ref="B23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1769,15 +1811,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="88.296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="2"/>
+    <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
